--- a/tzc_product_import_spt/sample/product_import_sample_file.xlsx
+++ b/tzc_product_import_spt/sample/product_import_sample_file.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="image_secondary_url" vbProcedure="false">Sheet1!$BE$2</definedName>
+    <definedName function="false" hidden="false" name="image_secondary_url" vbProcedure="false">Sheet1!$BA$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -34,15 +34,6 @@
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">List Price In USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wholesale Price In USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSRP Price In USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">List Price</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t xml:space="preserve">Website Url Keyword</t>
   </si>
   <si>
-    <t xml:space="preserve">eCommerce Category</t>
-  </si>
-  <si>
     <t xml:space="preserve">HTML Color Code</t>
   </si>
   <si>
@@ -272,9 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sunglass-Emporio-Armani-4124-Black-Plastic-573381-57-19-145-Rectangle-Full-Rim-Female-ETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunglass</t>
   </si>
   <si>
     <t xml:space="preserve">#000000</t>
@@ -710,18 +695,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ1" activeCellId="0" sqref="BJ1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="1" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1012" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="46.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -758,19 +743,19 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -806,22 +791,22 @@
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
@@ -830,10 +815,10 @@
       <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
@@ -842,10 +827,10 @@
       <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
@@ -854,25 +839,25 @@
       <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AY1" s="2" t="s">
@@ -891,29 +876,21 @@
         <v>54</v>
       </c>
       <c r="BD1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -927,175 +904,175 @@
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>4124</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>95.04</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>4124</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="X2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AK2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>8.64</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="AT2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AU2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" s="1" t="n">
-        <v>8.64</v>
-      </c>
-      <c r="AW2" s="1" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="AY2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="BA2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>90</v>
+      <c r="BA2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="BC2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="BF2" s="1" t="n">
         <v>1</v>
@@ -1103,18 +1080,10 @@
       <c r="BG2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -1128,191 +1097,183 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>95.04</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="X3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AH3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>5.83</v>
+      <c r="AQ3" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>5.04</v>
+        <v>17</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AV3" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX3" s="0" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AY3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC3" s="1" t="n">
+      <c r="BD3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="BD3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
       <c r="AMB3" s="0"/>
       <c r="AMC3" s="0"/>
@@ -1326,179 +1287,171 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>95.04</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="Q4" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="AH4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>5.83</v>
+      <c r="AQ4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>5.04</v>
+        <v>17</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AV4" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW4" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="BB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="BF4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="1" t="n">
+      <c r="BG4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
       <c r="AMA4" s="0"/>
       <c r="AMB4" s="0"/>
       <c r="AMC4" s="0"/>
@@ -1512,176 +1465,168 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4146</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="S5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>95.04</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>4146</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AH5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AQ5" s="1" t="n">
-        <v>5.83</v>
+      <c r="AQ5" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AR5" s="1" t="n">
-        <v>5.04</v>
+        <v>40.8</v>
       </c>
       <c r="AS5" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>79</v>
+        <v>44.94</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AV5" s="1" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="AW5" s="1" t="n">
-        <v>44.94</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AZ5" s="1" t="n">
-        <v>4</v>
+      <c r="BD5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="BF5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BH5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
       <c r="AMA5" s="0"/>
       <c r="AMB5" s="0"/>
       <c r="AMC5" s="0"/>
@@ -1695,174 +1640,166 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>95.04</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4146</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="Q6" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>86.4</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>95.04</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>4146</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="AF6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="AH6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="AQ6" s="1" t="n">
-        <v>5.83</v>
+      <c r="AQ6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AR6" s="1" t="n">
-        <v>5.04</v>
+        <v>6.6</v>
       </c>
       <c r="AS6" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>79</v>
+        <v>7.19</v>
+      </c>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AV6" s="1" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AW6" s="1" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AX6" s="0"/>
-      <c r="AY6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="BB6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="BF6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="BG6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
       <c r="AMA6" s="0"/>
       <c r="AMB6" s="0"/>
       <c r="AMC6" s="0"/>
@@ -1878,13 +1815,13 @@
   <conditionalFormatting sqref="A1:A6">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO1">
+  <conditionalFormatting sqref="AK1">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"xxx"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="BE2" r:id="rId1" display="https://www.teameto.com/catalog/static/s-ema-4146-575487_00.jpg"/>
+    <hyperlink ref="BA2" r:id="rId1" display="https://www.teameto.com/catalog/static/s-ema-4146-575487_00.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
